--- a/public/xls.xlsx
+++ b/public/xls.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10480"/>
+    <workbookView windowWidth="25600" windowHeight="10480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cgb文件上传校验" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4584" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4585" uniqueCount="175">
   <si>
     <t>所属模块</t>
   </si>
@@ -549,6 +550,9 @@
   </si>
   <si>
     <t>广发环境没有费控模块功能</t>
+  </si>
+  <si>
+    <t>手动阀手动阀</t>
   </si>
 </sst>
 </file>
@@ -1566,7 +1570,7 @@
   </sheetPr>
   <dimension ref="A1:H875"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A755" workbookViewId="0">
+    <sheetView topLeftCell="A755" workbookViewId="0">
       <selection activeCell="C761" sqref="C761"/>
     </sheetView>
   </sheetViews>
@@ -19933,4 +19937,31 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>354566</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>